--- a/info/table2.xlsx
+++ b/info/table2.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Validation of PSP amplitudes" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="syn-ex" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="149">
   <si>
     <t xml:space="preserve">Connection type</t>
   </si>
@@ -254,16 +255,259 @@
   </si>
   <si>
     <t xml:space="preserve">1.96 ± 0.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConnectionType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gsynM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gsynStd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t_decayM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t_decayStd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Num in tsv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L23_PC:L23_PC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L4_exc:L4_exc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L4_SS:L23_PC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121 (0,18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L5_TTPC:L5_TTPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123 (1,58)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L5_STPC:L5_STPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122 (0,86)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exc:exc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116 (0,79)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L5_TTPC:L5_MC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exc:MC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133 (0,12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L5_PC or SBC:L5_ChC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exc:SBC - ChC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118 (0,73)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exc:inh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114 – 117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115 – 134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exc :LBC – NBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[126:129]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L6_(TPC-IPC:TPC-IPC-BPC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L6_TPC: L6_(DBC-LBC-NBC-SBC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L6_IPC: L6_(DBC-LBC-NBC-SBC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inh:inh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L6_(DBC-LBC-NBC-SBC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L5_MC:L5_TTPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC:exc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTC-DBC-BP:exc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L6_MC:L6_IPC</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">L23_(LBC-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NBC-ChC)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:L23_PC</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBC-NBC-SBC:exc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBC-SBC:exc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBC-L6_(LBC-NBC):exc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBC:exc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inh:exc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BP:exc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChC:exc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#syn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -303,26 +547,46 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -351,7 +615,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -368,7 +632,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -378,6 +642,38 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -399,7 +695,7 @@
   </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -407,7 +703,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.2"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="11"/>
@@ -859,4 +1155,1724 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:N67"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="8.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="2.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="26.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="8.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="11.02"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="15" style="1" width="8.36"/>
+  </cols>
+  <sheetData>
+    <row r="2" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="7" t="n">
+        <v>119</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="9" t="n">
+        <v>0.2464</v>
+      </c>
+      <c r="L3" s="0"/>
+      <c r="N3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <v>120</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>0.2425</v>
+      </c>
+      <c r="L4" s="0"/>
+      <c r="N4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <v>121</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>0.0695</v>
+      </c>
+      <c r="L5" s="0"/>
+      <c r="N5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="7" t="n">
+        <v>123</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L6" s="0"/>
+      <c r="N6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <v>122</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="N7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <v>116</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>0.2845</v>
+      </c>
+      <c r="N8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>133</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>0.0432</v>
+      </c>
+      <c r="N9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="7" t="n">
+        <v>118</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>0.2594</v>
+      </c>
+      <c r="N10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="K11" s="9" t="n">
+        <v>0.1515</v>
+      </c>
+      <c r="N11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" s="9" t="n">
+        <v>0.7261</v>
+      </c>
+      <c r="K12" s="9" t="n">
+        <v>0.2593</v>
+      </c>
+      <c r="N12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H13" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" s="9" t="n">
+        <v>0.7927</v>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>0.2786</v>
+      </c>
+      <c r="N13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H14" s="14" t="n">
+        <v>132</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" s="9" t="n">
+        <v>0.7253</v>
+      </c>
+      <c r="K14" s="9" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="N14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="14" t="n">
+        <v>131</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" s="9" t="n">
+        <v>0.7244</v>
+      </c>
+      <c r="K15" s="9" t="n">
+        <v>0.2593</v>
+      </c>
+      <c r="N15" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>0.8297</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>0.2974</v>
+      </c>
+      <c r="L19" s="9" t="n">
+        <v>8.3028</v>
+      </c>
+      <c r="M19" s="9" t="n">
+        <v>1.1897</v>
+      </c>
+      <c r="N19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>0.8298</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="L20" s="9" t="n">
+        <v>10.4089</v>
+      </c>
+      <c r="M20" s="9"/>
+      <c r="N20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>0.7459</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>0.1723</v>
+      </c>
+      <c r="L21" s="9" t="n">
+        <v>8.2992</v>
+      </c>
+      <c r="M21" s="9"/>
+      <c r="N21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>0.7451</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="L22" s="9" t="n">
+        <v>8.2936</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c r="N22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>0.7501</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>0.1679</v>
+      </c>
+      <c r="L23" s="9" t="n">
+        <v>10.4808</v>
+      </c>
+      <c r="M23" s="9"/>
+      <c r="N23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>0.3301</v>
+      </c>
+      <c r="L24" s="9" t="n">
+        <v>6.3915</v>
+      </c>
+      <c r="M24" s="9"/>
+      <c r="N24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.9037</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="L25" s="9" t="n">
+        <v>8.2674</v>
+      </c>
+      <c r="M25" s="9" t="n">
+        <v>3.3364</v>
+      </c>
+      <c r="N25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.9059</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>0.3229</v>
+      </c>
+      <c r="L26" s="9" t="n">
+        <v>10.3483</v>
+      </c>
+      <c r="M26" s="9" t="n">
+        <v>3.2977</v>
+      </c>
+      <c r="N26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.8948</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>0.3212</v>
+      </c>
+      <c r="L27" s="9" t="n">
+        <v>8.2412</v>
+      </c>
+      <c r="M27" s="9" t="n">
+        <v>1.1641</v>
+      </c>
+      <c r="N27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>0.8515</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>0.3025</v>
+      </c>
+      <c r="L28" s="9" t="n">
+        <v>36.5532</v>
+      </c>
+      <c r="M28" s="9" t="n">
+        <v>1.1975</v>
+      </c>
+      <c r="N28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J29" s="9" t="n">
+        <v>2.9693</v>
+      </c>
+      <c r="K29" s="9" t="n">
+        <v>0.9544</v>
+      </c>
+      <c r="L29" s="9" t="n">
+        <v>8.5537</v>
+      </c>
+      <c r="M29" s="9" t="n">
+        <v>1.4677</v>
+      </c>
+      <c r="N29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="9" t="n">
+        <v>0.7149</v>
+      </c>
+      <c r="N30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H31" s="0"/>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
+      <c r="M31" s="9" t="n">
+        <v>1.0292</v>
+      </c>
+      <c r="N31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
+      <c r="M32" s="9" t="n">
+        <v>3.284</v>
+      </c>
+      <c r="N32" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="H35" s="7"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H36" s="7"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="0"/>
+    </row>
+    <row r="38" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="9" t="n">
+        <v>0.8298</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="E39" s="9" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>1.379</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>10.4089</v>
+      </c>
+      <c r="I39" s="9" t="n">
+        <v>3.3364</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>4.2004</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>16.5998</v>
+      </c>
+      <c r="L39" s="1" t="n">
+        <v>8658</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="9" t="n">
+        <v>0.8297</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>0.2974</v>
+      </c>
+      <c r="E40" s="9" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>1.379</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>8.3028</v>
+      </c>
+      <c r="I40" s="9" t="n">
+        <v>1.1897</v>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>10.4999</v>
+      </c>
+      <c r="L40" s="1" t="n">
+        <v>171846</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" s="9" t="n">
+        <v>0.9059</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>0.3229</v>
+      </c>
+      <c r="E41" s="9" t="n">
+        <v>0.3047</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>1.5176</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>10.3483</v>
+      </c>
+      <c r="I41" s="9" t="n">
+        <v>3.2977</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>4.2074</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>16.5955</v>
+      </c>
+      <c r="L41" s="1" t="n">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C42" s="9" t="n">
+        <v>0.8948</v>
+      </c>
+      <c r="D42" s="9" t="n">
+        <v>0.3212</v>
+      </c>
+      <c r="E42" s="9" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F42" s="9" t="n">
+        <v>1.516</v>
+      </c>
+      <c r="H42" s="9" t="n">
+        <v>8.2412</v>
+      </c>
+      <c r="I42" s="9" t="n">
+        <v>1.1641</v>
+      </c>
+      <c r="J42" s="9" t="n">
+        <v>6.1037</v>
+      </c>
+      <c r="K42" s="9" t="n">
+        <v>10.4926</v>
+      </c>
+      <c r="L42" s="1" t="n">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C43" s="9" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="D43" s="9" t="n">
+        <v>0.3301</v>
+      </c>
+      <c r="E43" s="9" t="n">
+        <v>0.3043</v>
+      </c>
+      <c r="F43" s="9" t="n">
+        <v>1.518</v>
+      </c>
+      <c r="H43" s="9" t="n">
+        <v>6.3915</v>
+      </c>
+      <c r="I43" s="9" t="n">
+        <v>0.9244</v>
+      </c>
+      <c r="J43" s="9" t="n">
+        <v>4.7008</v>
+      </c>
+      <c r="K43" s="9" t="n">
+        <v>8.0999</v>
+      </c>
+      <c r="L43" s="1" t="n">
+        <v>9739</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C44" s="9" t="n">
+        <v>0.7451</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="E44" s="9" t="n">
+        <v>0.4291</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>1.0627</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>8.2936</v>
+      </c>
+      <c r="I44" s="9" t="n">
+        <v>1.1975</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>6.1004</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>10.4982</v>
+      </c>
+      <c r="L44" s="1" t="n">
+        <v>5205</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C45" s="9" t="n">
+        <v>0.7459</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>0.1723</v>
+      </c>
+      <c r="E45" s="9" t="n">
+        <v>0.4291</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>1.0629</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>8.2992</v>
+      </c>
+      <c r="I45" s="9" t="n">
+        <v>1.1956</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>6.1008</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>10.4995</v>
+      </c>
+      <c r="L45" s="1" t="n">
+        <v>12643</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C46" s="9" t="n">
+        <v>0.9037</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E46" s="9" t="n">
+        <v>0.3042</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>1.518</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>8.2674</v>
+      </c>
+      <c r="I46" s="9" t="n">
+        <v>1.4677</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>5.6009</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>10.9999</v>
+      </c>
+      <c r="L46" s="1" t="n">
+        <v>9343</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C47" s="9" t="n">
+        <v>0.8515</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>0.3025</v>
+      </c>
+      <c r="E47" s="9" t="n">
+        <v>0.2799</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>1.3719</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>36.5532</v>
+      </c>
+      <c r="I47" s="9" t="n">
+        <v>0.7149</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>35.2022</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>37.7832</v>
+      </c>
+      <c r="L47" s="1" t="n">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C48" s="9" t="n">
+        <v>2.9693</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.9544</v>
+      </c>
+      <c r="E48" s="9" t="n">
+        <v>1.0308</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>4.645</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>8.5537</v>
+      </c>
+      <c r="I48" s="9" t="n">
+        <v>1.0292</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>6.4633</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>10.3609</v>
+      </c>
+      <c r="L48" s="1" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C49" s="9" t="n">
+        <v>0.7501</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.1679</v>
+      </c>
+      <c r="E49" s="9" t="n">
+        <v>0.4314</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1.062</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>10.4808</v>
+      </c>
+      <c r="I49" s="9" t="n">
+        <v>3.284</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>4.2465</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>16.5811</v>
+      </c>
+      <c r="L49" s="1" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="C50" s="9" t="n">
+        <v>0.4196</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="E50" s="9" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.7398</v>
+      </c>
+      <c r="I50" s="9" t="n">
+        <v>0.0972</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="L50" s="1" t="n">
+        <v>25679</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="C51" s="9" t="n">
+        <v>0.7254</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.2592</v>
+      </c>
+      <c r="E51" s="9" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.205</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.7402</v>
+      </c>
+      <c r="I51" s="9" t="n">
+        <v>0.0972</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="L51" s="1" t="n">
+        <v>102876</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="C52" s="9" t="n">
+        <v>0.7934</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.2845</v>
+      </c>
+      <c r="E52" s="9" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.3199</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.7405</v>
+      </c>
+      <c r="I52" s="9" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="L52" s="1" t="n">
+        <v>91305</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="C53" s="9" t="n">
+        <v>0.4198</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.1515</v>
+      </c>
+      <c r="E53" s="9" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.7399</v>
+      </c>
+      <c r="I53" s="9" t="n">
+        <v>0.0974</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="L53" s="1" t="n">
+        <v>101901</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="C54" s="9" t="n">
+        <v>0.7252</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>0.2594</v>
+      </c>
+      <c r="E54" s="9" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>1.2049</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>1.7401</v>
+      </c>
+      <c r="I54" s="9" t="n">
+        <v>0.0973</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="L54" s="1" t="n">
+        <v>70215</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="C55" s="9" t="n">
+        <v>0.6793</v>
+      </c>
+      <c r="D55" s="9" t="n">
+        <v>0.2464</v>
+      </c>
+      <c r="E55" s="9" t="n">
+        <v>0.2243</v>
+      </c>
+      <c r="F55" s="9" t="n">
+        <v>1.1426</v>
+      </c>
+      <c r="H55" s="9" t="n">
+        <v>1.7381</v>
+      </c>
+      <c r="I55" s="9" t="n">
+        <v>0.0964</v>
+      </c>
+      <c r="J55" s="9" t="n">
+        <v>1.5601</v>
+      </c>
+      <c r="K55" s="9" t="n">
+        <v>1.9194</v>
+      </c>
+      <c r="L55" s="1" t="n">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="C56" s="9" t="n">
+        <v>0.6761</v>
+      </c>
+      <c r="D56" s="9" t="n">
+        <v>0.2425</v>
+      </c>
+      <c r="E56" s="9" t="n">
+        <v>0.2272</v>
+      </c>
+      <c r="F56" s="9" t="n">
+        <v>1.1269</v>
+      </c>
+      <c r="H56" s="9" t="n">
+        <v>1.7396</v>
+      </c>
+      <c r="I56" s="9" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="J56" s="9" t="n">
+        <v>1.5601</v>
+      </c>
+      <c r="K56" s="9" t="n">
+        <v>1.9199</v>
+      </c>
+      <c r="L56" s="1" t="n">
+        <v>4589</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="C57" s="9" t="n">
+        <v>0.1834</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>0.0695</v>
+      </c>
+      <c r="E57" s="9" t="n">
+        <v>0.0638</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>0.3064</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>1.7348</v>
+      </c>
+      <c r="I57" s="9" t="n">
+        <v>0.1009</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>1.5611</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>1.9133</v>
+      </c>
+      <c r="L57" s="1" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="C58" s="9" t="n">
+        <v>0.8633</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>0.2908</v>
+      </c>
+      <c r="E58" s="9" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>1.3972</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>1.7472</v>
+      </c>
+      <c r="I58" s="9" t="n">
+        <v>0.0935</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>1.5603</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>1.9188</v>
+      </c>
+      <c r="L58" s="1" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="C59" s="9" t="n">
+        <v>1.5755</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>0.5716</v>
+      </c>
+      <c r="E59" s="9" t="n">
+        <v>0.5201</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>2.6198</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>1.7409</v>
+      </c>
+      <c r="I59" s="9" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="L59" s="1" t="n">
+        <v>13549</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="C60" s="9" t="n">
+        <v>0.7927</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>0.2786</v>
+      </c>
+      <c r="E60" s="9" t="n">
+        <v>0.2652</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>1.3195</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>1.7402</v>
+      </c>
+      <c r="I60" s="9" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>1.5604</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>1.9198</v>
+      </c>
+      <c r="L60" s="1" t="n">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="C61" s="9" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>0.2831</v>
+      </c>
+      <c r="E61" s="9" t="n">
+        <v>0.2652</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>1.3198</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>1.7407</v>
+      </c>
+      <c r="I61" s="9" t="n">
+        <v>0.0965</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>1.5604</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>1.9199</v>
+      </c>
+      <c r="L61" s="1" t="n">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="C62" s="9" t="n">
+        <v>0.7912</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>0.2861</v>
+      </c>
+      <c r="E62" s="9" t="n">
+        <v>0.2644</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>1.3182</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>1.7397</v>
+      </c>
+      <c r="I62" s="9" t="n">
+        <v>0.0975</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>1.5601</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>1.9194</v>
+      </c>
+      <c r="L62" s="1" t="n">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="C63" s="9" t="n">
+        <v>0.8015</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="E63" s="9" t="n">
+        <v>0.2642</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>1.3196</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>1.7433</v>
+      </c>
+      <c r="I63" s="9" t="n">
+        <v>0.0961</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>1.5601</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>1.9199</v>
+      </c>
+      <c r="L63" s="1" t="n">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="C64" s="9" t="n">
+        <v>0.7244</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.2589</v>
+      </c>
+      <c r="E64" s="9" t="n">
+        <v>0.2451</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>1.205</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>1.7398</v>
+      </c>
+      <c r="I64" s="9" t="n">
+        <v>0.0971</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="L64" s="1" t="n">
+        <v>15468</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="C65" s="9" t="n">
+        <v>0.7253</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E65" s="9" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>1.2049</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>1.7401</v>
+      </c>
+      <c r="I65" s="9" t="n">
+        <v>0.0975</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="L65" s="1" t="n">
+        <v>14671</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="C66" s="9" t="n">
+        <v>0.1151</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.0432</v>
+      </c>
+      <c r="E66" s="9" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>1.7401</v>
+      </c>
+      <c r="I66" s="9" t="n">
+        <v>0.0972</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="L66" s="1" t="n">
+        <v>112943</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="C67" s="9" t="n">
+        <v>0.7261</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>0.2593</v>
+      </c>
+      <c r="E67" s="9" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>1.205</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>1.7404</v>
+      </c>
+      <c r="I67" s="9" t="n">
+        <v>0.0972</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="L67" s="1" t="n">
+        <v>65064</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>